--- a/medicine/Maladie à coronavirus 2019/Manifestations_de_2021_en_Mongolie/Manifestations_de_2021_en_Mongolie.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Manifestations_de_2021_en_Mongolie/Manifestations_de_2021_en_Mongolie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les manifestations de 2021 en Mongolie sont des manifestations de masse et une grève nationale ayant abouti à la chute du Premier ministre Ukhnaagiin Khürelsükh après que des manifestants sont descendus dans la rue par milliers, protestant contre la réponse du gouvernement à la pandémie de Covid-19 en Mongolie du 20 au 22 janvier 2021. Les manifestants ont exigé la chute du gouvernement et du président face à l'incapacité à contenir la hausse des cas malgré 1584 cas et 3 décès[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manifestations de 2021 en Mongolie sont des manifestations de masse et une grève nationale ayant abouti à la chute du Premier ministre Ukhnaagiin Khürelsükh après que des manifestants sont descendus dans la rue par milliers, protestant contre la réponse du gouvernement à la pandémie de Covid-19 en Mongolie du 20 au 22 janvier 2021. Les manifestants ont exigé la chute du gouvernement et du président face à l'incapacité à contenir la hausse des cas malgré 1584 cas et 3 décès,.
 </t>
         </is>
       </c>
